--- a/Bootcamp Inter Android Developer/Git e GitHub/Lista de Comandos do Git.xlsx
+++ b/Bootcamp Inter Android Developer/Git e GitHub/Lista de Comandos do Git.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Lista de Comandos do Git e GitHub</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>alterar/deletar usuário da configuração</t>
+  </si>
+  <si>
+    <t>git config --global user.name "Eduardo Escudero"</t>
   </si>
   <si>
     <t>git config --global user.email "escudero.ti@gmail.com"</t>
@@ -197,27 +200,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -243,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -257,9 +262,6 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -476,10 +478,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="57.86"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
+    <col customWidth="1" min="1" max="1" width="50.63"/>
+    <col customWidth="1" min="2" max="2" width="65.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -602,63 +604,64 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" ht="17.25" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -671,40 +674,45 @@
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="2" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +720,7 @@
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A19"/>
+    <hyperlink r:id="rId1" ref="A20"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
